--- a/fully_heterogeneous.xlsx
+++ b/fully_heterogeneous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141BB87-C122-9946-B0C2-8BCE6271814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6740BDF-6348-A94B-B45D-FAD2DE66006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" firstSheet="2" activeTab="8" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
   </bookViews>
   <sheets>
     <sheet name="get_fwd_release_delays" sheetId="1" r:id="rId1"/>
@@ -399,1740 +399,1740 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EE6FD3-4147-0A46-89D9-DA1459BF3B7D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E83" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E84" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2152,34 +2152,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2192,509 +2192,509 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2706,1710 +2706,1710 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11B2DF9-796E-AF41-8E63-88C35A3E090B}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4459,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B27F04-9FC0-F24B-BEC0-B428E359E494}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="A37" sqref="A37:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5081,1090 +5081,1702 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E83" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E99" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>8</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6176,35 +6788,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE91C5B-2C9C-D444-A97C-AD8E19690B03}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6217,7 +6829,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6229,12 +6841,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6244,7 +6856,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -6259,7 +6871,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -6269,7 +6881,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -6289,57 +6901,57 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -6349,7 +6961,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -6374,12 +6986,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -6394,12 +7006,12 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -6409,17 +7021,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
@@ -6444,12 +7056,12 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
@@ -6464,7 +7076,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -6479,27 +7091,27 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -6509,7 +7121,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
@@ -6519,12 +7131,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
@@ -6534,22 +7146,22 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
@@ -6559,32 +7171,32 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -6599,42 +7211,42 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
@@ -6644,7 +7256,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
@@ -6669,7 +7281,7 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
@@ -6679,22 +7291,22 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
@@ -6704,22 +7316,22 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6731,1710 +7343,1710 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB64272B-2AB0-F742-9AB4-95C4E9DB372C}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
